--- a/medicine/Enfance/George_Lowther/George_Lowther.xlsx
+++ b/medicine/Enfance/George_Lowther/George_Lowther.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George F. Lowther né le 9 avril 1913 et mort le 28 avril 1975 était écrivain, producteur et réalisateur d'émission de radio et de télévision américain. Durant les années 1940 il fut le scénariste du feuilleton radiophonique consacré à Superman. Il fut aussi l'auteur en 1942 du roman The Adventures of Superman inspiré du personnage de comics.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">George F. Lowther naît le 9 avril 1913 à New York. Il commence très jeune à travailler pour la radio et écrit des épisodes pour les feuilletons Dick Tracy,Terry et les Pirates, The Adventures of Superman, Roy Rogers et Tom Mix. Plus tard il écrit, produit et réalise des épisodes de séries télévisées comme The United States Steel Hour et Armstrong Circle Theatre. Il écrit aussi des épisodes de The Edge of Night[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George F. Lowther naît le 9 avril 1913 à New York. Il commence très jeune à travailler pour la radio et écrit des épisodes pour les feuilletons Dick Tracy,Terry et les Pirates, The Adventures of Superman, Roy Rogers et Tom Mix. Plus tard il écrit, produit et réalise des épisodes de séries télévisées comme The United States Steel Hour et Armstrong Circle Theatre. Il écrit aussi des épisodes de The Edge of Night.
 Lowther écrit aussi des romans pour la jeunesse. En 1963 il devient membre de la Famous Writers School.
-De 1974 à 1975, il écrit 44 épisodes de la série CBS Radio Mystery Theater[2].
-Il meurt le 28 avril 1975 à Westport dans le Connecticut[1].
+De 1974 à 1975, il écrit 44 épisodes de la série CBS Radio Mystery Theater.
+Il meurt le 28 avril 1975 à Westport dans le Connecticut.
 </t>
         </is>
       </c>
@@ -547,15 +561,61 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Télévision
-Comme producteur
-Matinee Theatre (producteur exécutif) (55 épisodes, 1955–1956)
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Comme producteur</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Matinee Theatre (producteur exécutif) (55 épisodes, 1955–1956)
 The Secret Storm (1954)
 Kraft Television Theatre (producteur exécutif) (50 épisodes, 1953–1954)
 The United States Steel Hour (producteur exécutif) (23 épisodes, 1953–1954)
-Armstrong Circle Theatre (producteur) (62 épisodes, 1950–1951)
-Comme scénariste
-The Edge of Night (1956)
+Armstrong Circle Theatre (producteur) (62 épisodes, 1950–1951)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>George_Lowther</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Lowther</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Edge of Night (1956)
 "Matinee Theatre" (1955–1957)
 "Nine-Finger Jack" (1957)
 "Make-Believe Affair" (1957)
@@ -569,9 +629,47 @@
 "Armstrong Circle Theatre" épisode, "The Bells of Cockaigne" 1953
 "Kraft Television Theatre" 1953
 "Captain Video and His Video Rangers"  4 épisodes en 1952
-"Tom Corbett, Space Cadet" 1950
-Comme réalisateur
-A Christmas Carol (1943) (TV)</t>
+"Tom Corbett, Space Cadet" 1950</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>George_Lowther</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Lowther</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Comme réalisateur</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A Christmas Carol (1943) (TV)</t>
         </is>
       </c>
     </row>
